--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays_splitBy.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays_splitBy.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614D6343-DE1F-4F7B-B247-915FB19D993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="12480" yWindow="2960" windowWidth="21920" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUp" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="59">
   <si>
     <t xml:space="preserve">Datatype car </t>
   </si>
@@ -109,9 +110,6 @@
     <t>#3</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>#4</t>
   </si>
   <si>
@@ -119,9 +117,6 @@
   </si>
   <si>
     <t>9,9,9,9</t>
-  </si>
-  <si>
-    <t>1,</t>
   </si>
   <si>
     <t>#6</t>
@@ -208,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,16 +248,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -542,30 +533,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="60.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -573,29 +564,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="3"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -606,13 +590,10 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -623,13 +604,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>1</v>
       </c>
@@ -639,11 +617,8 @@
       <c r="D14" s="1">
         <v>8</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -653,12 +628,8 @@
       <c r="D15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>3</v>
       </c>
@@ -668,12 +639,8 @@
       <c r="D16" s="1">
         <v>8</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -682,13 +649,10 @@
       </c>
       <c r="D17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>5</v>
       </c>
@@ -699,13 +663,10 @@
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>6</v>
       </c>
@@ -715,12 +676,8 @@
       <c r="D19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>7</v>
       </c>
@@ -730,12 +687,8 @@
       <c r="D20" s="1">
         <v>7</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>8</v>
       </c>
@@ -745,12 +698,8 @@
       <c r="D21" s="1">
         <v>8</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>9</v>
       </c>
@@ -761,13 +710,10 @@
         <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>10</v>
       </c>
@@ -776,105 +722,8 @@
       </c>
       <c r="D23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -886,58 +735,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7265625" customWidth="1"/>
+    <col min="12" max="12" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -945,51 +790,46 @@
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="3"/>
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -1012,7 +852,6 @@
       <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="3"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
         <v>22</v>
@@ -1032,12 +871,8 @@
       <c r="R5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1045,62 +880,57 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="3"/>
       <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -1115,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="1">
         <v>2</v>
@@ -1130,17 +960,13 @@
         <v>8</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R7" s="1">
         <v>5</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1151,25 +977,12 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1177,9 +990,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -1193,15 +1006,15 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1209,12 +1022,12 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1225,15 +1038,15 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
@@ -1243,28 +1056,28 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="L21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1272,47 +1085,46 @@
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="3"/>
       <c r="L22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Q22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -1335,7 +1147,6 @@
       <c r="I23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="3"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
         <v>22</v>
@@ -1356,7 +1167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1364,58 +1175,57 @@
         <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="3"/>
       <c r="L24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Q24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>48</v>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F25" s="1">
         <v>5</v>
@@ -1430,7 +1240,7 @@
         <v>9</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M25" s="1">
         <v>2</v>
@@ -1445,13 +1255,13 @@
         <v>8</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R25" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1462,21 +1272,12 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1484,9 +1285,9 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
@@ -1500,15 +1301,15 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1516,12 +1317,12 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1532,15 +1333,15 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>37</v>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1">
         <v>4</v>
@@ -1550,28 +1351,28 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="L35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>20</v>
       </c>
@@ -1579,47 +1380,46 @@
         <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J36" s="3"/>
       <c r="L36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Q36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>22</v>
@@ -1642,7 +1442,6 @@
       <c r="I37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="3"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
         <v>22</v>
@@ -1663,7 +1462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
@@ -1671,58 +1470,57 @@
         <v>24</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="3"/>
       <c r="L38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O38" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="Q38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>48</v>
+      <c r="D39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
@@ -1737,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M39" s="1">
         <v>2</v>
@@ -1752,13 +1550,13 @@
         <v>8</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R39" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>27</v>
       </c>
@@ -1769,21 +1567,12 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1791,9 +1580,9 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="1">
         <v>4</v>
@@ -1807,15 +1596,15 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1823,12 +1612,12 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -1839,15 +1628,15 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>37</v>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E45" s="1">
         <v>4</v>
